--- a/biology/Zoologie/Chironomini/Chironomini.xlsx
+++ b/biology/Zoologie/Chironomini/Chironomini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chironomini sont une tribu d'insectes diptères nématocères de la famille des Chironomidae, de la sous-famille des Chironominae.
 </t>
@@ -511,9 +523,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette tribu a été publiée en 1838 par l'entomologiste français Pierre Justin Marie Macquart (1778-1855)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tribu a été publiée en 1838 par l'entomologiste français Pierre Justin Marie Macquart (1778-1855).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des genres selon ITIS s'établit à 49 genres[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des genres selon ITIS s'établit à 49 genres : 
 Acalcarella Shilova, 1955
 Apedilum Townes, 1945
 Asheum Sublette &amp; Sublette, 1983
@@ -594,7 +610,7 @@
 Wirthiella Sublette, 1960
 Xenochironomus Kieffer, 1921
 Xestochironomus Sublette &amp; Wirth, 1972
-[note 2][3].
+[note 2].
 Les cinq genres suivants faisaient partie d'une précédente liste de la tribu :
 Baeotendipes Kieffer, 1913
 Carbochironomus Reiss &amp; Kirschbaum 1990
@@ -629,9 +645,11 @@
           <t>Genres fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette tribu a cinq genres fossiles selon Paleobiology Database[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tribu a cinq genres fossiles selon Paleobiology Database :
 Axarus Roback 1980
 Chironomus Meigen, 1803
 Endochironomus Kieffer, 1918
